--- a/report/result.xlsx
+++ b/report/result.xlsx
@@ -72,7 +72,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.0944</t>
+    <t>0.104911</t>
   </si>
   <si>
     <t>"reason":"successed!"</t>
@@ -88,7 +88,7 @@
 "qq":  "283340479"}</t>
   </si>
   <si>
-    <t>0.044521</t>
+    <t>0.049212</t>
   </si>
   <si>
     <t>"reason":"KEY ERROR!"</t>
@@ -137,7 +137,7 @@
     <t>parent.location='/zentao/index.html'</t>
   </si>
   <si>
-    <t>0.096412</t>
+    <t>0.10147</t>
   </si>
 </sst>
 </file>
